--- a/1_Measurement_and_Uncertainty/Embedded_Qs/3_b_c_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/3_b_c_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="1"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>Correct</t>
   </si>
@@ -278,6 +278,99 @@
   </si>
   <si>
     <t>Sometimes we recognize extraneous variable in our measurement system that is not directly quantified by manufacturer's uncertainty, resolution uncertainty, etc…  In this case, we can increase our reported uncertainty in order to account for this problem (if we can't solve it in another way)</t>
+  </si>
+  <si>
+    <t>What problem does error propagation address?</t>
+  </si>
+  <si>
+    <t>Sometimes we want the uncertainty in a value that is calculated by a measured value</t>
+  </si>
+  <si>
+    <t>Sometimes we want the total uncertainty in a value that has both random and systematic uncertainties</t>
+  </si>
+  <si>
+    <t>Sometimes we want the uncertainty in a measured value but have to way to determine what that is</t>
+  </si>
+  <si>
+    <t>This can be a problem, but it is unfortunately not addressed by the error propagation process</t>
+  </si>
+  <si>
+    <t>Sometimes we want to just close our eyes for a little while and not think about uncertianty</t>
+  </si>
+  <si>
+    <t>Error propagation "translates" the uncertainty in a measured value into the uncertainty in a calculated value</t>
+  </si>
+  <si>
+    <t>Above is the basic expression for error propagation.  Imagine you are measuring the width of box in order to find its volume.  You determine the uncertainty in the width, but need to propagate that to an uncertainty in the volume.  Match the terms below with their definition in this case.</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u_y</t>
+  </si>
+  <si>
+    <t>u_x</t>
+  </si>
+  <si>
+    <t>dy/dx</t>
+  </si>
+  <si>
+    <t>The volume of the box</t>
+  </si>
+  <si>
+    <t>The width of the box</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>The rate at which the volume changes as the width changes</t>
+  </si>
+  <si>
+    <t>The rate at which the width changes as the volume changes</t>
+  </si>
+  <si>
+    <t>The uncertainty in the width</t>
+  </si>
+  <si>
+    <t>The uncertainty in the volume</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>You are measuring the width W of a box to find its volume V with the equation V = WLH, where L and H are the height and length of the box.  What is the sensitivity of volume to width?</t>
+  </si>
+  <si>
+    <t>WLH</t>
+  </si>
+  <si>
+    <t>V/W</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>This is the partial derivative of WLH with respect to W.   To say this is the sensitivity of V to W is to say that with any change in with dW, the volume chances by the product LH*dW.  This makes sense: if the box gets wider by dW, the volume will increase by that amount times the cross-sectional area LH.</t>
+  </si>
+  <si>
+    <t>Consider the following situations.  In which case would the final result be most "sensitive" to small changes in the measured value?</t>
+  </si>
+  <si>
+    <t>The area A of square in response to the measurement L of one side (A = L^2)</t>
+  </si>
+  <si>
+    <t>The radiative emissions from a surface E in response to the measurement of its temperature T (E = constant * T^4)</t>
+  </si>
+  <si>
+    <t>The force F required to accelerate an object in response to the measurement of its mass (F = ma)</t>
+  </si>
+  <si>
+    <t>Radiative emissions is highly sensitive to temperature: so a small change in temperature can increase emissions significantly.   This is especially true when T is large, as we can see mathmatically: the partial derivitive of E with respect to T (that is, the sensitivity of E to T) is equal to 4 * constant* T^3.</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1398,7 +1491,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,30 +1502,52 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,30 +1570,74 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,7 +1649,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,30 +1660,50 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1541,7 +1720,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,24 +1731,40 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/3_b_c_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/3_b_c_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>Error propagation "translates" the uncertainty in a measured value into the uncertainty in a calculated value</t>
   </si>
   <si>
-    <t>Above is the basic expression for error propagation.  Imagine you are measuring the width of box in order to find its volume.  You determine the uncertainty in the width, but need to propagate that to an uncertainty in the volume.  Match the terms below with their definition in this case.</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>Radiative emissions is highly sensitive to temperature: so a small change in temperature can increase emissions significantly.   This is especially true when T is large, as we can see mathmatically: the partial derivitive of E with respect to T (that is, the sensitivity of E to T) is equal to 4 * constant* T^3.</t>
+  </si>
+  <si>
+    <t>Above is the basic expression for error propagation.  Imagine you are measuring the width of box in order to find its volume.  You determine the uncertainty in the width, but need to propagate that to an uncertainty in the volume.  Match the definitions below with their terms.</t>
   </si>
 </sst>
 </file>
@@ -1558,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,71 +1572,71 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1662,14 +1662,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,14 +1733,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1749,18 +1749,18 @@
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1791,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
